--- a/src/main/resources/Datos.xlsx
+++ b/src/main/resources/Datos.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
+    <sheet name="Formulario" sheetId="2" r:id="rId2"/>
+    <sheet name="Entrevista" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Usuario</t>
   </si>
@@ -31,13 +33,181 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Primer Nombre</t>
+  </si>
+  <si>
+    <t>Segundo Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Vacante</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Palabra Clave</t>
+  </si>
+  <si>
+    <t>Fecha Aplicación</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Junior Account Assistant</t>
+  </si>
+  <si>
+    <t>Payroll Administrator</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
+  </si>
+  <si>
+    <t>Senior QA Lead</t>
+  </si>
+  <si>
+    <t>Senior Support Specialist</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2024-26-11</t>
+  </si>
+  <si>
+    <t>Agregando candidato</t>
+  </si>
+  <si>
+    <t>Numero Contacto</t>
+  </si>
+  <si>
+    <t>Nombre Entrevistador</t>
+  </si>
+  <si>
+    <t>Timothy Lewis Amiano</t>
+  </si>
+  <si>
+    <t>Peter Mac Anderson</t>
+  </si>
+  <si>
+    <t>Thomas Kutty Benny</t>
+  </si>
+  <si>
+    <t>Amelia  Brown</t>
+  </si>
+  <si>
+    <t>Ravi M B</t>
+  </si>
+  <si>
+    <t>Fecha Entrevisa</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>1:00:00 a. m</t>
+  </si>
+  <si>
+    <t>2:00:00 a. m</t>
+  </si>
+  <si>
+    <t>3:00:00 a. m</t>
+  </si>
+  <si>
+    <t>4:00:00 a. m</t>
+  </si>
+  <si>
+    <t>5:00:00 a. m</t>
+  </si>
+  <si>
+    <t>6:00:00 a. m</t>
+  </si>
+  <si>
+    <t>7:00:00 a. m</t>
+  </si>
+  <si>
+    <t>8:00:00 a. m</t>
+  </si>
+  <si>
+    <t>9:00:00 a. m</t>
+  </si>
+  <si>
+    <t>10:00:00 a. m</t>
+  </si>
+  <si>
+    <t>11:00:00 a. m</t>
+  </si>
+  <si>
+    <t>12:00:00 p. m</t>
+  </si>
+  <si>
+    <t>1:00:00 p. m</t>
+  </si>
+  <si>
+    <t>2:00:00 p. m</t>
+  </si>
+  <si>
+    <t>3:00:00 p. m</t>
+  </si>
+  <si>
+    <t>4:00:00 p. m</t>
+  </si>
+  <si>
+    <t>5:00:00 p. m</t>
+  </si>
+  <si>
+    <t>6:00:00 p. m</t>
+  </si>
+  <si>
+    <t>7:00:00 p. m</t>
+  </si>
+  <si>
+    <t>8:00:00 p. m</t>
+  </si>
+  <si>
+    <t>9:00:00 p. m</t>
+  </si>
+  <si>
+    <t>10:00:00 p. m</t>
+  </si>
+  <si>
+    <t>11:00:00 p. m</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Cardona</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>2024-27-11</t>
+  </si>
+  <si>
+    <t>emilo.jose@gmail.com</t>
+  </si>
+  <si>
+    <t>3134567891</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +222,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF64728C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -68,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,19 +275,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -415,4 +623,332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>$A$18:$A$24</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>$A$16:$A$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>$B$16:$B$39</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>